--- a/data/trans_dic/P41E_2023_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P41E_2023_R-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.06208312171870524</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.08738714230354626</v>
+        <v>0.08738714230354623</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.07402803681951142</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01695698442099819</v>
+        <v>0.0164120749888806</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.02923395844229834</v>
+        <v>0.02915244724093428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03641897834611273</v>
+        <v>0.037279386905366</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1433737248914744</v>
+        <v>0.1383496128932082</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1965756923756171</v>
+        <v>0.1853899082502321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1351486646533024</v>
+        <v>0.1365330523220317</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00600113274439425</v>
+        <v>0.005923142519550178</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.004482416194141195</v>
+        <v>0.004560842547168096</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.008113520640483112</v>
+        <v>0.007560237797397265</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05538501170640699</v>
+        <v>0.05408363378129315</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04018173212113709</v>
+        <v>0.04069959304794391</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03801865174075597</v>
+        <v>0.03710169988476252</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.02104821333461268</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.02232465625360989</v>
+        <v>0.02232465625360988</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0111767460828721</v>
+        <v>0.01143391439533989</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009262969469531887</v>
+        <v>0.01049523903436835</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01381464357160995</v>
+        <v>0.01349328030223633</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04448173732827303</v>
+        <v>0.04554546735142491</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03863087993080092</v>
+        <v>0.03883479093040242</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03486721252084667</v>
+        <v>0.03447598570068317</v>
       </c>
     </row>
     <row r="13">
@@ -735,7 +735,7 @@
         <v>0.06305836675692168</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.05765754514500149</v>
+        <v>0.05765754514500151</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03250168744859046</v>
+        <v>0.0326059849546475</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04434984494311139</v>
+        <v>0.04524795225977481</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.04370738306991231</v>
+        <v>0.04390979370577845</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07792738649848494</v>
+        <v>0.07814517314827964</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.08576026694626356</v>
+        <v>0.08442474633993707</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07421218940731118</v>
+        <v>0.07247668297535466</v>
       </c>
     </row>
     <row r="16">
@@ -787,7 +787,7 @@
         <v>0.1506929415322805</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.1763873944506313</v>
+        <v>0.1763873944506312</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.1630655223325327</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.116469982887275</v>
+        <v>0.1164715508470367</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1466347251009684</v>
+        <v>0.1460259280036614</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1394946406654166</v>
+        <v>0.1409039118479463</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.185374874593608</v>
+        <v>0.191700055427564</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2120688734029078</v>
+        <v>0.2167431320473373</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1883770876100822</v>
+        <v>0.1895748179954692</v>
       </c>
     </row>
     <row r="19">
@@ -842,7 +842,7 @@
         <v>0.2529230644395584</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.3056600793420467</v>
+        <v>0.3056600793420468</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>0.2756760449992859</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2070637744827521</v>
+        <v>0.2110828040214812</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.258865984168772</v>
+        <v>0.2509155225694988</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2387446690337219</v>
+        <v>0.2408455200984357</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3096426398521855</v>
+        <v>0.3117958961242475</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3633484392214032</v>
+        <v>0.3578308699081896</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.312718560413732</v>
+        <v>0.3115689722121157</v>
       </c>
     </row>
     <row r="22">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3059432024702503</v>
+        <v>0.313570491855057</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3800891804205007</v>
+        <v>0.3747150847223628</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3620881830238489</v>
+        <v>0.359764232183941</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.4499521479888708</v>
+        <v>0.4492457222957792</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.5091415646581093</v>
+        <v>0.5050106965728114</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4514842279215978</v>
+        <v>0.4574782064798687</v>
       </c>
     </row>
     <row r="25">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.09930786266499657</v>
+        <v>0.09899777185499622</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1121225238714363</v>
+        <v>0.1103449110749032</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.1089973780903134</v>
+        <v>0.1079719806333817</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1268534113145427</v>
+        <v>0.1251152631308332</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.1381104799665015</v>
+        <v>0.1385264958297466</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1284883934276689</v>
+        <v>0.1270612610235386</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1657</v>
+        <v>1604</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>2555</v>
+        <v>2548</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>6742</v>
+        <v>6901</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14013</v>
+        <v>13522</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17179</v>
+        <v>16201</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25019</v>
+        <v>25275</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3592</v>
+        <v>3347</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>12003</v>
+        <v>11721</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9079</v>
+        <v>9196</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16830</v>
+        <v>16424</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3731</v>
+        <v>3817</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>2955</v>
+        <v>3348</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>9018</v>
+        <v>8809</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>14848</v>
+        <v>15203</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>12324</v>
+        <v>12389</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>22762</v>
+        <v>22506</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>10832</v>
+        <v>10867</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>17123</v>
+        <v>17470</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>31442</v>
+        <v>31587</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25972</v>
+        <v>26044</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>33111</v>
+        <v>32595</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>53386</v>
+        <v>52137</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>39736</v>
+        <v>39737</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>46463</v>
+        <v>46270</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>91792</v>
+        <v>92719</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>63244</v>
+        <v>65402</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>67196</v>
+        <v>68677</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>123958</v>
+        <v>124746</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>44926</v>
+        <v>45798</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>42620</v>
+        <v>41311</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>91107</v>
+        <v>91909</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>67182</v>
+        <v>67649</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>59823</v>
+        <v>58914</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>119337</v>
+        <v>118898</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36486</v>
+        <v>37396</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>44863</v>
+        <v>44229</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>85921</v>
+        <v>85369</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>53660</v>
+        <v>53576</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>60096</v>
+        <v>59608</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>107134</v>
+        <v>108556</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>164746</v>
+        <v>164231</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>181412</v>
+        <v>178536</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>357175</v>
+        <v>353815</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>210442</v>
+        <v>207558</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>223460</v>
+        <v>224133</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>421046</v>
+        <v>416369</v>
       </c>
     </row>
     <row r="36">
